--- a/recordcleaner/Web_ADV_Report_CME.xlsx
+++ b/recordcleaner/Web_ADV_Report_CME.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="ADV 2-28-18" sheetId="1" r:id="rId1"/>
+    <s:sheet name="ADV 29-03-2018" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,18 +19,18 @@
     <t>Product</t>
   </si>
   <si>
+    <t>ADV MAR 2018</t>
+  </si>
+  <si>
+    <t>ADV MAR 2017</t>
+  </si>
+  <si>
+    <t>% CHG</t>
+  </si>
+  <si>
     <t>ADV FEB 2018</t>
   </si>
   <si>
-    <t>ADV FEB 2017</t>
-  </si>
-  <si>
-    <t>% CHG</t>
-  </si>
-  <si>
-    <t>ADV JAN 2018</t>
-  </si>
-  <si>
     <t>ADV Y.T.D 2018</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>BITCOIN FUTURES</t>
   </si>
   <si>
+    <t>E-mini FTSE 100 (USD)</t>
+  </si>
+  <si>
     <t>E-mini FTSE China 50</t>
   </si>
   <si>
-    <t>E-mini FTSE 100 (USD)</t>
-  </si>
-  <si>
     <t>FTSE Emerging</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>EOW3 E-MINI RUSSELL 2000 WE</t>
   </si>
   <si>
+    <t>EOW3 EMINI S&amp;P 500</t>
+  </si>
+  <si>
     <t>EOW3 S&amp;P 500</t>
   </si>
   <si>
-    <t>EOW3 EMINI S&amp;P 500</t>
-  </si>
-  <si>
     <t>AUSTRALIAN DOLLAR</t>
   </si>
   <si>
@@ -364,13 +364,13 @@
     <t>AUSTRALIAN DLR (EU)</t>
   </si>
   <si>
+    <t>GBP/USD PQO 2pm Fix</t>
+  </si>
+  <si>
+    <t>JPY/USD PQO 2pm Fix</t>
+  </si>
+  <si>
     <t>AUD/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>GBP/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>JPY/USD PQO 2pm Fix</t>
   </si>
   <si>
     <t>EUR/USD PQO 2pm Fix</t>
@@ -875,28 +875,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4770266</v>
+        <v>4158536</v>
       </c>
       <c r="C2" t="n">
-        <v>3007672.32</v>
+        <v>3171077.91</v>
       </c>
       <c r="D2" t="n">
-        <v>58.6</v>
+        <v>31.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3319541.1</v>
+        <v>4770265.58</v>
       </c>
       <c r="F2" t="n">
-        <v>43.7</v>
+        <v>-12.8</v>
       </c>
       <c r="G2" t="n">
-        <v>4008635</v>
+        <v>4060240</v>
       </c>
       <c r="H2" t="n">
-        <v>3068939</v>
+        <v>3106830</v>
       </c>
       <c r="I2" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -910,28 +910,28 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C3" t="n">
-        <v>133.63</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>124.3</v>
+        <v>188.5</v>
       </c>
       <c r="E3" t="n">
-        <v>94.38</v>
+        <v>299.74</v>
       </c>
       <c r="F3" t="n">
-        <v>217.6</v>
+        <v>-11.8</v>
       </c>
       <c r="G3" t="n">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="H3" t="n">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I3" t="n">
-        <v>27.4</v>
+        <v>68.5</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -945,28 +945,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1321817</v>
+        <v>849418</v>
       </c>
       <c r="C4" t="n">
-        <v>841988.58</v>
+        <v>862778.91</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>806425.71</v>
+        <v>1321816.68</v>
       </c>
       <c r="F4" t="n">
-        <v>63.9</v>
+        <v>-35.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1051236</v>
+        <v>981758</v>
       </c>
       <c r="H4" t="n">
-        <v>718271</v>
+        <v>771879</v>
       </c>
       <c r="I4" t="n">
-        <v>46.4</v>
+        <v>27.2</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -980,28 +980,28 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>1183038</v>
+        <v>866884</v>
       </c>
       <c r="C5" t="n">
-        <v>865973.05</v>
+        <v>862770.5699999999</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>986426.48</v>
+        <v>1183037.63</v>
       </c>
       <c r="F5" t="n">
-        <v>19.9</v>
+        <v>-26.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1079817</v>
+        <v>1006512</v>
       </c>
       <c r="H5" t="n">
-        <v>824684</v>
+        <v>838813</v>
       </c>
       <c r="I5" t="n">
-        <v>30.9</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -1015,28 +1015,28 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>2260335</v>
+        <v>2259509</v>
       </c>
       <c r="C6" t="n">
-        <v>1414246.42</v>
+        <v>1880364.52</v>
       </c>
       <c r="D6" t="n">
-        <v>59.8</v>
+        <v>20.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1388257.9</v>
+        <v>2260334.58</v>
       </c>
       <c r="F6" t="n">
-        <v>62.8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1802494</v>
+        <v>1959827</v>
       </c>
       <c r="H6" t="n">
-        <v>1423936</v>
+        <v>1593256</v>
       </c>
       <c r="I6" t="n">
-        <v>26.6</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
+        <v>11227</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11088.17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E7" t="n">
         <v>9126</v>
       </c>
-      <c r="C7" t="n">
-        <v>5228.63</v>
-      </c>
-      <c r="D7" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4464.86</v>
-      </c>
       <c r="F7" t="n">
-        <v>104.4</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>6679</v>
+        <v>8245</v>
       </c>
       <c r="H7" t="n">
-        <v>5380</v>
+        <v>7498</v>
       </c>
       <c r="I7" t="n">
-        <v>24.1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1085,28 +1085,28 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>22655</v>
+        <v>28131</v>
       </c>
       <c r="C8" t="n">
-        <v>13432.47</v>
+        <v>25780.7</v>
       </c>
       <c r="D8" t="n">
-        <v>68.7</v>
+        <v>9.1</v>
       </c>
       <c r="E8" t="n">
-        <v>15089.52</v>
+        <v>22655.42</v>
       </c>
       <c r="F8" t="n">
-        <v>50.1</v>
+        <v>24.2</v>
       </c>
       <c r="G8" t="n">
-        <v>18683</v>
+        <v>21936</v>
       </c>
       <c r="H8" t="n">
-        <v>15676</v>
+        <v>19425</v>
       </c>
       <c r="I8" t="n">
-        <v>19.2</v>
+        <v>12.9</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1120,13 +1120,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.37</v>
+        <v>1.61</v>
       </c>
       <c r="D9" t="n">
-        <v>-100</v>
+        <v>-23</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-100</v>
+        <v>-49.2</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1155,28 +1155,28 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
+        <v>622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>784</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="E10" t="n">
         <v>692</v>
       </c>
-      <c r="C10" t="n">
-        <v>718.21</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1114.05</v>
-      </c>
       <c r="F10" t="n">
-        <v>-37.9</v>
+        <v>-10.2</v>
       </c>
       <c r="G10" t="n">
-        <v>914</v>
+        <v>813</v>
       </c>
       <c r="H10" t="n">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="I10" t="n">
-        <v>35.4</v>
+        <v>13.7</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -1190,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>158106</v>
+        <v>183588</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>107795.19</v>
+        <v>158105.79</v>
       </c>
       <c r="F11" t="n">
-        <v>46.7</v>
+        <v>16.1</v>
       </c>
       <c r="G11" t="n">
-        <v>131693</v>
+        <v>149558</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1225,28 +1225,28 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>462</v>
+        <v>1297</v>
       </c>
       <c r="C12" t="n">
-        <v>37.11</v>
+        <v>90.17</v>
       </c>
       <c r="D12" t="n">
-        <v>1145.5</v>
+        <v>1338.4</v>
       </c>
       <c r="E12" t="n">
-        <v>565.5700000000001</v>
+        <v>462.16</v>
       </c>
       <c r="F12" t="n">
-        <v>-18.3</v>
+        <v>180.7</v>
       </c>
       <c r="G12" t="n">
-        <v>516</v>
+        <v>785</v>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I12" t="n">
-        <v>1463.8</v>
+        <v>1348</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1260,28 +1260,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
+        <v>583036</v>
+      </c>
+      <c r="C13" t="n">
+        <v>247771.04</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="E13" t="n">
         <v>531579</v>
       </c>
-      <c r="C13" t="n">
-        <v>179105.53</v>
-      </c>
-      <c r="D13" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>333352.76</v>
-      </c>
       <c r="F13" t="n">
-        <v>59.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>427510</v>
+        <v>481052</v>
       </c>
       <c r="H13" t="n">
-        <v>180245</v>
+        <v>205295</v>
       </c>
       <c r="I13" t="n">
-        <v>137.2</v>
+        <v>134.3</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1295,28 +1295,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>28931</v>
+        <v>25256</v>
       </c>
       <c r="C14" t="n">
-        <v>13506.11</v>
+        <v>15660.13</v>
       </c>
       <c r="D14" t="n">
-        <v>114.2</v>
+        <v>61.3</v>
       </c>
       <c r="E14" t="n">
-        <v>16106.19</v>
+        <v>28930.58</v>
       </c>
       <c r="F14" t="n">
-        <v>79.59999999999999</v>
+        <v>-12.7</v>
       </c>
       <c r="G14" t="n">
-        <v>22198</v>
+        <v>23250</v>
       </c>
       <c r="H14" t="n">
-        <v>13877</v>
+        <v>14538</v>
       </c>
       <c r="I14" t="n">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1330,28 +1330,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>70606</v>
+        <v>61150</v>
       </c>
       <c r="C15" t="n">
-        <v>43241.42</v>
+        <v>45301.65</v>
       </c>
       <c r="D15" t="n">
-        <v>63.3</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>40918.43</v>
+        <v>70606.21000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>72.59999999999999</v>
+        <v>-13.4</v>
       </c>
       <c r="G15" t="n">
-        <v>55020</v>
+        <v>57130</v>
       </c>
       <c r="H15" t="n">
-        <v>49331</v>
+        <v>47836</v>
       </c>
       <c r="I15" t="n">
-        <v>11.5</v>
+        <v>19.4</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1365,28 +1365,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>351</v>
+        <v>738</v>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>691.91</v>
       </c>
       <c r="D16" t="n">
-        <v>47.3</v>
+        <v>6.6</v>
       </c>
       <c r="E16" t="n">
-        <v>708.5700000000001</v>
+        <v>350.53</v>
       </c>
       <c r="F16" t="n">
-        <v>-50.5</v>
+        <v>110.5</v>
       </c>
       <c r="G16" t="n">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="H16" t="n">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="I16" t="n">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1400,28 +1400,28 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>922</v>
+        <v>1861</v>
       </c>
       <c r="C17" t="n">
-        <v>746.11</v>
+        <v>1310.83</v>
       </c>
       <c r="D17" t="n">
-        <v>23.6</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>810.67</v>
+        <v>921.89</v>
       </c>
       <c r="F17" t="n">
-        <v>13.7</v>
+        <v>101.9</v>
       </c>
       <c r="G17" t="n">
-        <v>864</v>
+        <v>1207</v>
       </c>
       <c r="H17" t="n">
-        <v>603</v>
+        <v>866</v>
       </c>
       <c r="I17" t="n">
-        <v>43.2</v>
+        <v>39.5</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1435,28 +1435,28 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>1278</v>
+        <v>4471</v>
       </c>
       <c r="C18" t="n">
-        <v>631.74</v>
+        <v>2045.04</v>
       </c>
       <c r="D18" t="n">
-        <v>102.2</v>
+        <v>118.6</v>
       </c>
       <c r="E18" t="n">
-        <v>1035.38</v>
+        <v>1277.58</v>
       </c>
       <c r="F18" t="n">
-        <v>23.4</v>
+        <v>250</v>
       </c>
       <c r="G18" t="n">
-        <v>1150</v>
+        <v>2294</v>
       </c>
       <c r="H18" t="n">
-        <v>654</v>
+        <v>1170</v>
       </c>
       <c r="I18" t="n">
-        <v>75.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1470,28 +1470,28 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>401</v>
+        <v>1129</v>
       </c>
       <c r="C19" t="n">
-        <v>345.21</v>
+        <v>497.96</v>
       </c>
       <c r="D19" t="n">
-        <v>16.1</v>
+        <v>126.7</v>
       </c>
       <c r="E19" t="n">
-        <v>420.62</v>
+        <v>400.79</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.7</v>
+        <v>181.6</v>
       </c>
       <c r="G19" t="n">
-        <v>411</v>
+        <v>658</v>
       </c>
       <c r="H19" t="n">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="I19" t="n">
-        <v>41.3</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -1505,28 +1505,28 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>942</v>
+        <v>2345</v>
       </c>
       <c r="C20" t="n">
-        <v>303.53</v>
+        <v>702.04</v>
       </c>
       <c r="D20" t="n">
-        <v>210.2</v>
+        <v>234</v>
       </c>
       <c r="E20" t="n">
-        <v>610.1900000000001</v>
+        <v>941.63</v>
       </c>
       <c r="F20" t="n">
-        <v>54.3</v>
+        <v>149</v>
       </c>
       <c r="G20" t="n">
-        <v>768</v>
+        <v>1311</v>
       </c>
       <c r="H20" t="n">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="I20" t="n">
-        <v>216.4</v>
+        <v>217.3</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1540,28 +1540,28 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>1170</v>
+        <v>3104</v>
       </c>
       <c r="C21" t="n">
-        <v>823.84</v>
+        <v>1935.22</v>
       </c>
       <c r="D21" t="n">
-        <v>42.1</v>
+        <v>60.4</v>
       </c>
       <c r="E21" t="n">
-        <v>1350.33</v>
+        <v>1170.37</v>
       </c>
       <c r="F21" t="n">
-        <v>-13.3</v>
+        <v>165.3</v>
       </c>
       <c r="G21" t="n">
-        <v>1265</v>
+        <v>1898</v>
       </c>
       <c r="H21" t="n">
-        <v>723</v>
+        <v>1173</v>
       </c>
       <c r="I21" t="n">
-        <v>74.90000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -1575,28 +1575,28 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>640</v>
+        <v>1376</v>
       </c>
       <c r="C22" t="n">
-        <v>599.37</v>
+        <v>1237.3</v>
       </c>
       <c r="D22" t="n">
-        <v>6.7</v>
+        <v>11.2</v>
       </c>
       <c r="E22" t="n">
-        <v>385.52</v>
+        <v>639.74</v>
       </c>
       <c r="F22" t="n">
-        <v>65.90000000000001</v>
+        <v>115</v>
       </c>
       <c r="G22" t="n">
-        <v>506</v>
+        <v>806</v>
       </c>
       <c r="H22" t="n">
-        <v>533</v>
+        <v>794</v>
       </c>
       <c r="I22" t="n">
-        <v>-5</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -1610,28 +1610,28 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>887</v>
+        <v>1368</v>
       </c>
       <c r="C23" t="n">
-        <v>279.42</v>
+        <v>761.26</v>
       </c>
       <c r="D23" t="n">
-        <v>217.4</v>
+        <v>79.7</v>
       </c>
       <c r="E23" t="n">
-        <v>672.33</v>
+        <v>886.89</v>
       </c>
       <c r="F23" t="n">
-        <v>31.9</v>
+        <v>54.2</v>
       </c>
       <c r="G23" t="n">
-        <v>774</v>
+        <v>979</v>
       </c>
       <c r="H23" t="n">
-        <v>376</v>
+        <v>519</v>
       </c>
       <c r="I23" t="n">
-        <v>105.7</v>
+        <v>88.5</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -1645,28 +1645,28 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>436</v>
+        <v>774</v>
       </c>
       <c r="C24" t="n">
-        <v>19.47</v>
+        <v>28.83</v>
       </c>
       <c r="D24" t="n">
-        <v>2137.6</v>
+        <v>2585.7</v>
       </c>
       <c r="E24" t="n">
-        <v>266.43</v>
+        <v>435.74</v>
       </c>
       <c r="F24" t="n">
-        <v>63.5</v>
+        <v>77.7</v>
       </c>
       <c r="G24" t="n">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="H24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I24" t="n">
-        <v>1931.1</v>
+        <v>2204.4</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -1680,28 +1680,28 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C25" t="n">
-        <v>12.26</v>
+        <v>7.57</v>
       </c>
       <c r="D25" t="n">
-        <v>406.4</v>
+        <v>1430.8</v>
       </c>
       <c r="E25" t="n">
-        <v>56</v>
+        <v>62.11</v>
       </c>
       <c r="F25" t="n">
-        <v>10.9</v>
+        <v>86.5</v>
       </c>
       <c r="G25" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I25" t="n">
-        <v>305.8</v>
+        <v>557.6</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1715,28 +1715,28 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>509</v>
+        <v>1251</v>
       </c>
       <c r="C26" t="n">
-        <v>73.84</v>
+        <v>197.13</v>
       </c>
       <c r="D26" t="n">
-        <v>589</v>
+        <v>534.7</v>
       </c>
       <c r="E26" t="n">
-        <v>837.67</v>
+        <v>508.79</v>
       </c>
       <c r="F26" t="n">
-        <v>-39.3</v>
+        <v>145.9</v>
       </c>
       <c r="G26" t="n">
-        <v>681</v>
+        <v>878</v>
       </c>
       <c r="H26" t="n">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I26" t="n">
-        <v>925.3</v>
+        <v>663.6</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -1750,28 +1750,28 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>1160</v>
+        <v>2714</v>
       </c>
       <c r="C27" t="n">
-        <v>288.42</v>
+        <v>1114.39</v>
       </c>
       <c r="D27" t="n">
-        <v>302.2</v>
+        <v>143.5</v>
       </c>
       <c r="E27" t="n">
-        <v>416.33</v>
+        <v>1159.89</v>
       </c>
       <c r="F27" t="n">
-        <v>178.6</v>
+        <v>134</v>
       </c>
       <c r="G27" t="n">
-        <v>770</v>
+        <v>1439</v>
       </c>
       <c r="H27" t="n">
-        <v>270</v>
+        <v>583</v>
       </c>
       <c r="I27" t="n">
-        <v>185.4</v>
+        <v>146.8</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -1785,28 +1785,28 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>59.32</v>
+        <v>28.7</v>
       </c>
       <c r="D28" t="n">
-        <v>103.2</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="n">
-        <v>34.14</v>
+        <v>120.53</v>
       </c>
       <c r="F28" t="n">
-        <v>253</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H28" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I28" t="n">
-        <v>100.8</v>
+        <v>73.2</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -1820,28 +1820,28 @@
         <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
+        <v>28.17</v>
+      </c>
+      <c r="D29" t="n">
+        <v>250.9</v>
       </c>
       <c r="E29" t="n">
-        <v>48.38</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>415.9</v>
+        <v>274.1</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -1855,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
+        <v>32.26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-42.1</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1890,22 +1890,22 @@
         <v>42</v>
       </c>
       <c r="B31" t="n">
+        <v>2578</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
         <v>1601</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1358.38</v>
-      </c>
       <c r="F31" t="n">
-        <v>17.9</v>
+        <v>61</v>
       </c>
       <c r="G31" t="n">
-        <v>1474</v>
+        <v>1854</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C32" t="n">
-        <v>72.58</v>
-      </c>
-      <c r="D32" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>62.76</v>
+        <v>134.16</v>
       </c>
       <c r="F32" t="n">
-        <v>85.09999999999999</v>
+        <v>-11.1</v>
       </c>
       <c r="G32" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H32" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
+        <v>26376.8</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -1960,28 +1960,28 @@
         <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
+        <v>38.65</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18.8</v>
       </c>
       <c r="E33" t="n">
-        <v>57.05</v>
+        <v>116.16</v>
       </c>
       <c r="F33" t="n">
-        <v>135.2</v>
+        <v>-60.5</v>
       </c>
       <c r="G33" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I33" t="n">
-        <v>15121.8</v>
+        <v>1.2</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -1995,28 +1995,28 @@
         <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
+        <v>1.96</v>
+      </c>
+      <c r="D34" t="n">
+        <v>119</v>
       </c>
       <c r="E34" t="n">
-        <v>10.67</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>-14.6</v>
+        <v>-52.9</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1333.6</v>
+        <v>587.5</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -2030,28 +2030,28 @@
         <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>180</v>
+        <v>816</v>
       </c>
       <c r="C35" t="n">
-        <v>217.84</v>
+        <v>350.7</v>
       </c>
       <c r="D35" t="n">
-        <v>-17.3</v>
+        <v>132.8</v>
       </c>
       <c r="E35" t="n">
-        <v>174.38</v>
+        <v>180.11</v>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>353.3</v>
       </c>
       <c r="G35" t="n">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="H35" t="n">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="I35" t="n">
-        <v>43.1</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -2065,28 +2065,28 @@
         <v>47</v>
       </c>
       <c r="B36" t="n">
-        <v>931</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>235.68</v>
+        <v>264.43</v>
       </c>
       <c r="D36" t="n">
-        <v>295.2</v>
+        <v>-86.3</v>
       </c>
       <c r="E36" t="n">
-        <v>1713.62</v>
+        <v>931.47</v>
       </c>
       <c r="F36" t="n">
-        <v>-45.6</v>
+        <v>-96.09999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>1342</v>
+        <v>893</v>
       </c>
       <c r="H36" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="I36" t="n">
-        <v>576.8</v>
+        <v>300.5</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -2100,28 +2100,28 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>535011</v>
+        <v>336402</v>
       </c>
       <c r="C37" t="n">
-        <v>237689.32</v>
+        <v>231863.43</v>
       </c>
       <c r="D37" t="n">
-        <v>125.1</v>
+        <v>45.1</v>
       </c>
       <c r="E37" t="n">
-        <v>259957.05</v>
+        <v>535010.6800000001</v>
       </c>
       <c r="F37" t="n">
-        <v>105.8</v>
+        <v>-37.1</v>
       </c>
       <c r="G37" t="n">
-        <v>390608</v>
+        <v>371947</v>
       </c>
       <c r="H37" t="n">
-        <v>192145</v>
+        <v>206879</v>
       </c>
       <c r="I37" t="n">
-        <v>103.3</v>
+        <v>79.8</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -2135,28 +2135,28 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>23869</v>
+        <v>20338</v>
       </c>
       <c r="C38" t="n">
-        <v>19984.79</v>
+        <v>18851.43</v>
       </c>
       <c r="D38" t="n">
-        <v>19.4</v>
+        <v>7.9</v>
       </c>
       <c r="E38" t="n">
-        <v>14966.71</v>
+        <v>23868.89</v>
       </c>
       <c r="F38" t="n">
-        <v>59.5</v>
+        <v>-14.8</v>
       </c>
       <c r="G38" t="n">
-        <v>19195</v>
+        <v>19589</v>
       </c>
       <c r="H38" t="n">
-        <v>13906</v>
+        <v>15740</v>
       </c>
       <c r="I38" t="n">
-        <v>38</v>
+        <v>24.4</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -2170,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="n">
-        <v>1369</v>
+        <v>1205</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2179,13 +2179,13 @@
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>351.67</v>
+        <v>1369.42</v>
       </c>
       <c r="F39" t="n">
-        <v>289.4</v>
+        <v>-12</v>
       </c>
       <c r="G39" t="n">
-        <v>835</v>
+        <v>963</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>24</v>
       </c>
       <c r="B40" t="n">
-        <v>15122</v>
+        <v>11095</v>
       </c>
       <c r="C40" t="n">
-        <v>8294.42</v>
+        <v>9579.83</v>
       </c>
       <c r="D40" t="n">
-        <v>82.3</v>
+        <v>15.8</v>
       </c>
       <c r="E40" t="n">
-        <v>16599.57</v>
+        <v>15122.05</v>
       </c>
       <c r="F40" t="n">
-        <v>-8.9</v>
+        <v>-26.6</v>
       </c>
       <c r="G40" t="n">
-        <v>15898</v>
+        <v>14244</v>
       </c>
       <c r="H40" t="n">
-        <v>8444</v>
+        <v>8865</v>
       </c>
       <c r="I40" t="n">
-        <v>88.3</v>
+        <v>60.7</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -2240,28 +2240,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>21426</v>
+        <v>6347</v>
       </c>
       <c r="C41" t="n">
-        <v>8700.32</v>
+        <v>9473.389999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>146.3</v>
+        <v>-33</v>
       </c>
       <c r="E41" t="n">
-        <v>17557.81</v>
+        <v>21425.74</v>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>19395</v>
+        <v>14903</v>
       </c>
       <c r="H41" t="n">
-        <v>9080</v>
+        <v>9226</v>
       </c>
       <c r="I41" t="n">
-        <v>113.6</v>
+        <v>61.5</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -2275,28 +2275,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>216429</v>
+        <v>154255</v>
       </c>
       <c r="C42" t="n">
-        <v>82837.16</v>
+        <v>124700.57</v>
       </c>
       <c r="D42" t="n">
-        <v>161.3</v>
+        <v>23.7</v>
       </c>
       <c r="E42" t="n">
-        <v>151805</v>
+        <v>216429.42</v>
       </c>
       <c r="F42" t="n">
-        <v>42.6</v>
+        <v>-28.7</v>
       </c>
       <c r="G42" t="n">
-        <v>182502</v>
+        <v>172777</v>
       </c>
       <c r="H42" t="n">
-        <v>85424</v>
+        <v>99994</v>
       </c>
       <c r="I42" t="n">
-        <v>113.6</v>
+        <v>72.8</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -2310,28 +2310,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>66836</v>
+        <v>47850</v>
       </c>
       <c r="C43" t="n">
-        <v>59228.63</v>
+        <v>58052.43</v>
       </c>
       <c r="D43" t="n">
-        <v>12.8</v>
+        <v>-17.6</v>
       </c>
       <c r="E43" t="n">
-        <v>67237.62</v>
+        <v>66836.42</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6</v>
+        <v>-28.4</v>
       </c>
       <c r="G43" t="n">
-        <v>67047</v>
+        <v>60438</v>
       </c>
       <c r="H43" t="n">
-        <v>55361</v>
+        <v>56360</v>
       </c>
       <c r="I43" t="n">
-        <v>21.1</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="s">
         <v>16</v>
@@ -2345,28 +2345,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>133711</v>
+        <v>49824</v>
       </c>
       <c r="C44" t="n">
-        <v>58816.05</v>
+        <v>50106.3</v>
       </c>
       <c r="D44" t="n">
-        <v>127.3</v>
+        <v>-0.6</v>
       </c>
       <c r="E44" t="n">
-        <v>60295.05</v>
+        <v>133710.68</v>
       </c>
       <c r="F44" t="n">
-        <v>121.8</v>
+        <v>-62.7</v>
       </c>
       <c r="G44" t="n">
-        <v>95167</v>
+        <v>79557</v>
       </c>
       <c r="H44" t="n">
-        <v>58771</v>
+        <v>55556</v>
       </c>
       <c r="I44" t="n">
-        <v>61.9</v>
+        <v>43.2</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -2380,28 +2380,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>3024</v>
+        <v>1170</v>
       </c>
       <c r="C45" t="n">
-        <v>3823.21</v>
+        <v>3383.83</v>
       </c>
       <c r="D45" t="n">
-        <v>-20.9</v>
+        <v>-65.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>5684.67</v>
+        <v>3024.16</v>
       </c>
       <c r="F45" t="n">
-        <v>-46.8</v>
+        <v>-61.3</v>
       </c>
       <c r="G45" t="n">
-        <v>4421</v>
+        <v>3302</v>
       </c>
       <c r="H45" t="n">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="I45" t="n">
-        <v>30.4</v>
+        <v>-2.5</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -2415,28 +2415,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>7441</v>
+        <v>6083</v>
       </c>
       <c r="C46" t="n">
-        <v>9775.950000000001</v>
+        <v>9748.389999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>-23.9</v>
+        <v>-37.6</v>
       </c>
       <c r="E46" t="n">
-        <v>11268.05</v>
+        <v>7441.32</v>
       </c>
       <c r="F46" t="n">
-        <v>-34</v>
+        <v>-18.3</v>
       </c>
       <c r="G46" t="n">
-        <v>9450</v>
+        <v>8291</v>
       </c>
       <c r="H46" t="n">
-        <v>8288</v>
+        <v>8830</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>-6.1</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -2450,28 +2450,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>82185</v>
+        <v>80286</v>
       </c>
       <c r="C47" t="n">
-        <v>47064.95</v>
+        <v>65542.09</v>
       </c>
       <c r="D47" t="n">
-        <v>74.59999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="E47" t="n">
-        <v>67189.28999999999</v>
+        <v>82185.16</v>
       </c>
       <c r="F47" t="n">
-        <v>22.3</v>
+        <v>-2.3</v>
       </c>
       <c r="G47" t="n">
-        <v>74312</v>
+        <v>76369</v>
       </c>
       <c r="H47" t="n">
-        <v>49939</v>
+        <v>55727</v>
       </c>
       <c r="I47" t="n">
-        <v>48.8</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
@@ -2485,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>156</v>
+        <v>195.53</v>
       </c>
       <c r="F48" t="n">
-        <v>25.3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>390</v>
+        <v>788</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>255.62</v>
+        <v>390.42</v>
       </c>
       <c r="F49" t="n">
-        <v>52.7</v>
+        <v>101.7</v>
       </c>
       <c r="G49" t="n">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>88.19</v>
+        <v>168.05</v>
       </c>
       <c r="F50" t="n">
-        <v>90.59999999999999</v>
+        <v>-1</v>
       </c>
       <c r="G50" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2590,22 +2590,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
+        <v>359</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
         <v>403</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="n">
-        <v>162.86</v>
-      </c>
       <c r="F51" t="n">
-        <v>147.5</v>
+        <v>-10.9</v>
       </c>
       <c r="G51" t="n">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>447</v>
+        <v>693</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>157.1</v>
+        <v>447.11</v>
       </c>
       <c r="F52" t="n">
-        <v>184.6</v>
+        <v>55</v>
       </c>
       <c r="G52" t="n">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>1267</v>
+        <v>2100</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2669,13 +2669,13 @@
         <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>957.24</v>
+        <v>1267.21</v>
       </c>
       <c r="F53" t="n">
-        <v>32.4</v>
+        <v>65.7</v>
       </c>
       <c r="G53" t="n">
-        <v>1104</v>
+        <v>1447</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2695,28 +2695,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>23711</v>
+        <v>157079</v>
       </c>
       <c r="C54" t="n">
-        <v>17349.95</v>
+        <v>166563.78</v>
       </c>
       <c r="D54" t="n">
-        <v>36.7</v>
+        <v>-5.7</v>
       </c>
       <c r="E54" t="n">
-        <v>37034.62</v>
+        <v>322127.89</v>
       </c>
       <c r="F54" t="n">
-        <v>-36</v>
+        <v>-51.2</v>
       </c>
       <c r="G54" t="n">
-        <v>30706</v>
+        <v>236370</v>
       </c>
       <c r="H54" t="n">
-        <v>17996</v>
+        <v>181971</v>
       </c>
       <c r="I54" t="n">
-        <v>70.59999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="J54" t="s">
         <v>16</v>
@@ -2730,28 +2730,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>322128</v>
+        <v>6814</v>
       </c>
       <c r="C55" t="n">
-        <v>182596.47</v>
+        <v>17782.65</v>
       </c>
       <c r="D55" t="n">
-        <v>76.40000000000001</v>
+        <v>-61.7</v>
       </c>
       <c r="E55" t="n">
-        <v>238072.29</v>
+        <v>23711.21</v>
       </c>
       <c r="F55" t="n">
-        <v>35.3</v>
+        <v>-71.3</v>
       </c>
       <c r="G55" t="n">
-        <v>277999</v>
+        <v>22481</v>
       </c>
       <c r="H55" t="n">
-        <v>191058</v>
+        <v>17917</v>
       </c>
       <c r="I55" t="n">
-        <v>45.5</v>
+        <v>25.5</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -2765,28 +2765,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>133938</v>
+        <v>122862</v>
       </c>
       <c r="C56" t="n">
-        <v>79162.74000000001</v>
+        <v>100759.52</v>
       </c>
       <c r="D56" t="n">
-        <v>69.2</v>
+        <v>21.9</v>
       </c>
       <c r="E56" t="n">
-        <v>121088.19</v>
+        <v>133938.11</v>
       </c>
       <c r="F56" t="n">
-        <v>10.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>127192</v>
+        <v>125701</v>
       </c>
       <c r="H56" t="n">
-        <v>84719</v>
+        <v>90670</v>
       </c>
       <c r="I56" t="n">
-        <v>50.1</v>
+        <v>38.6</v>
       </c>
       <c r="J56" t="s">
         <v>63</v>
@@ -2800,28 +2800,28 @@
         <v>64</v>
       </c>
       <c r="B57" t="n">
-        <v>144173</v>
+        <v>143816</v>
       </c>
       <c r="C57" t="n">
-        <v>103953.21</v>
+        <v>135232.13</v>
       </c>
       <c r="D57" t="n">
-        <v>38.7</v>
+        <v>6.3</v>
       </c>
       <c r="E57" t="n">
-        <v>139545</v>
+        <v>144172.84</v>
       </c>
       <c r="F57" t="n">
-        <v>3.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G57" t="n">
-        <v>141743</v>
+        <v>142457</v>
       </c>
       <c r="H57" t="n">
-        <v>114525</v>
+        <v>122207</v>
       </c>
       <c r="I57" t="n">
-        <v>23.8</v>
+        <v>16.6</v>
       </c>
       <c r="J57" t="s">
         <v>63</v>
@@ -2835,28 +2835,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="n">
-        <v>6784</v>
+        <v>5286</v>
       </c>
       <c r="C58" t="n">
-        <v>4847.89</v>
+        <v>3699.04</v>
       </c>
       <c r="D58" t="n">
-        <v>39.9</v>
+        <v>42.9</v>
       </c>
       <c r="E58" t="n">
-        <v>5201.1</v>
+        <v>6784.37</v>
       </c>
       <c r="F58" t="n">
-        <v>30.4</v>
+        <v>-22.1</v>
       </c>
       <c r="G58" t="n">
-        <v>5953</v>
+        <v>5724</v>
       </c>
       <c r="H58" t="n">
-        <v>4630</v>
+        <v>4285</v>
       </c>
       <c r="I58" t="n">
-        <v>28.6</v>
+        <v>33.6</v>
       </c>
       <c r="J58" t="s">
         <v>63</v>
@@ -2870,28 +2870,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="n">
-        <v>85383</v>
+        <v>100476</v>
       </c>
       <c r="C59" t="n">
-        <v>57571.32</v>
+        <v>75047.25999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>48.3</v>
+        <v>33.9</v>
       </c>
       <c r="E59" t="n">
-        <v>81973.81</v>
+        <v>85383.32000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>4.2</v>
+        <v>17.7</v>
       </c>
       <c r="G59" t="n">
-        <v>83593</v>
+        <v>89405</v>
       </c>
       <c r="H59" t="n">
-        <v>64093</v>
+        <v>68156</v>
       </c>
       <c r="I59" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="J59" t="s">
         <v>63</v>
@@ -2905,28 +2905,28 @@
         <v>67</v>
       </c>
       <c r="B60" t="n">
-        <v>4726</v>
+        <v>4746</v>
       </c>
       <c r="C60" t="n">
-        <v>3692.21</v>
+        <v>4448.87</v>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>6.7</v>
       </c>
       <c r="E60" t="n">
-        <v>6833.67</v>
+        <v>4725.84</v>
       </c>
       <c r="F60" t="n">
-        <v>-30.8</v>
+        <v>0.4</v>
       </c>
       <c r="G60" t="n">
-        <v>5832</v>
+        <v>5458</v>
       </c>
       <c r="H60" t="n">
-        <v>4061</v>
+        <v>4205</v>
       </c>
       <c r="I60" t="n">
-        <v>43.6</v>
+        <v>29.8</v>
       </c>
       <c r="J60" t="s">
         <v>63</v>
@@ -2940,28 +2940,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="n">
-        <v>262377</v>
+        <v>301725</v>
       </c>
       <c r="C61" t="n">
-        <v>193002.26</v>
+        <v>252648.35</v>
       </c>
       <c r="D61" t="n">
-        <v>35.9</v>
+        <v>19.4</v>
       </c>
       <c r="E61" t="n">
-        <v>291887.14</v>
+        <v>262376.89</v>
       </c>
       <c r="F61" t="n">
-        <v>-10.1</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>277870</v>
+        <v>286082</v>
       </c>
       <c r="H61" t="n">
-        <v>205012</v>
+        <v>222683</v>
       </c>
       <c r="I61" t="n">
-        <v>35.5</v>
+        <v>28.5</v>
       </c>
       <c r="J61" t="s">
         <v>63</v>
@@ -2975,28 +2975,28 @@
         <v>69</v>
       </c>
       <c r="B62" t="n">
-        <v>724</v>
+        <v>591</v>
       </c>
       <c r="C62" t="n">
-        <v>1292.58</v>
+        <v>1592.17</v>
       </c>
       <c r="D62" t="n">
-        <v>-44</v>
+        <v>-62.9</v>
       </c>
       <c r="E62" t="n">
-        <v>731</v>
+        <v>723.63</v>
       </c>
       <c r="F62" t="n">
-        <v>-1</v>
+        <v>-18.4</v>
       </c>
       <c r="G62" t="n">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="H62" t="n">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="I62" t="n">
-        <v>-54</v>
+        <v>-57.1</v>
       </c>
       <c r="J62" t="s">
         <v>63</v>
@@ -3010,28 +3010,28 @@
         <v>70</v>
       </c>
       <c r="B63" t="n">
-        <v>181994</v>
+        <v>170198</v>
       </c>
       <c r="C63" t="n">
-        <v>144205.84</v>
+        <v>175836.96</v>
       </c>
       <c r="D63" t="n">
-        <v>26.2</v>
+        <v>-3.2</v>
       </c>
       <c r="E63" t="n">
-        <v>165697.1</v>
+        <v>181993.53</v>
       </c>
       <c r="F63" t="n">
-        <v>9.800000000000001</v>
+        <v>-6.5</v>
       </c>
       <c r="G63" t="n">
-        <v>173438</v>
+        <v>172323</v>
       </c>
       <c r="H63" t="n">
-        <v>168818</v>
+        <v>171422</v>
       </c>
       <c r="I63" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="J63" t="s">
         <v>63</v>
@@ -3045,28 +3045,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="n">
-        <v>61715</v>
+        <v>78068</v>
       </c>
       <c r="C64" t="n">
-        <v>37750.11</v>
+        <v>57534.17</v>
       </c>
       <c r="D64" t="n">
-        <v>63.5</v>
+        <v>35.7</v>
       </c>
       <c r="E64" t="n">
-        <v>59078.43</v>
+        <v>61714.53</v>
       </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>26.5</v>
       </c>
       <c r="G64" t="n">
-        <v>60331</v>
+        <v>66437</v>
       </c>
       <c r="H64" t="n">
-        <v>46409</v>
+        <v>50536</v>
       </c>
       <c r="I64" t="n">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="J64" t="s">
         <v>63</v>
@@ -3080,28 +3080,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="n">
-        <v>34468</v>
+        <v>30411</v>
       </c>
       <c r="C65" t="n">
-        <v>22033.68</v>
+        <v>27738.61</v>
       </c>
       <c r="D65" t="n">
-        <v>56.4</v>
+        <v>9.6</v>
       </c>
       <c r="E65" t="n">
-        <v>36436.48</v>
+        <v>34468.42</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.4</v>
+        <v>-11.8</v>
       </c>
       <c r="G65" t="n">
-        <v>35502</v>
+        <v>33749</v>
       </c>
       <c r="H65" t="n">
-        <v>24516</v>
+        <v>25712</v>
       </c>
       <c r="I65" t="n">
-        <v>44.8</v>
+        <v>31.3</v>
       </c>
       <c r="J65" t="s">
         <v>63</v>
@@ -3115,28 +3115,28 @@
         <v>73</v>
       </c>
       <c r="B66" t="n">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="C66" t="n">
-        <v>42.63</v>
+        <v>259.17</v>
       </c>
       <c r="D66" t="n">
-        <v>184.7</v>
+        <v>23.2</v>
       </c>
       <c r="E66" t="n">
-        <v>175.33</v>
+        <v>121.37</v>
       </c>
       <c r="F66" t="n">
-        <v>-30.8</v>
+        <v>163.1</v>
       </c>
       <c r="G66" t="n">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="H66" t="n">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I66" t="n">
-        <v>268.6</v>
+        <v>71</v>
       </c>
       <c r="J66" t="s">
         <v>63</v>
@@ -3150,28 +3150,28 @@
         <v>74</v>
       </c>
       <c r="B67" t="n">
-        <v>2874</v>
+        <v>5688</v>
       </c>
       <c r="C67" t="n">
-        <v>1120.68</v>
+        <v>3873.57</v>
       </c>
       <c r="D67" t="n">
-        <v>156.5</v>
+        <v>46.8</v>
       </c>
       <c r="E67" t="n">
-        <v>1270.33</v>
+        <v>2874.37</v>
       </c>
       <c r="F67" t="n">
-        <v>126.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>2032</v>
+        <v>3291</v>
       </c>
       <c r="H67" t="n">
-        <v>1183</v>
+        <v>2181</v>
       </c>
       <c r="I67" t="n">
-        <v>71.8</v>
+        <v>50.9</v>
       </c>
       <c r="J67" t="s">
         <v>63</v>
@@ -3185,28 +3185,28 @@
         <v>75</v>
       </c>
       <c r="B68" t="n">
-        <v>2107</v>
+        <v>2700</v>
       </c>
       <c r="C68" t="n">
-        <v>2081.42</v>
+        <v>3939.91</v>
       </c>
       <c r="D68" t="n">
-        <v>1.2</v>
+        <v>-31.5</v>
       </c>
       <c r="E68" t="n">
-        <v>1839.71</v>
+        <v>2107.11</v>
       </c>
       <c r="F68" t="n">
-        <v>14.5</v>
+        <v>28.1</v>
       </c>
       <c r="G68" t="n">
-        <v>1967</v>
+        <v>2219</v>
       </c>
       <c r="H68" t="n">
-        <v>1907</v>
+        <v>2661</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>-16.6</v>
       </c>
       <c r="J68" t="s">
         <v>63</v>
@@ -3220,28 +3220,28 @@
         <v>76</v>
       </c>
       <c r="B69" t="n">
-        <v>27466</v>
+        <v>31010</v>
       </c>
       <c r="C69" t="n">
-        <v>19580.21</v>
+        <v>26019.57</v>
       </c>
       <c r="D69" t="n">
-        <v>40.3</v>
+        <v>19.2</v>
       </c>
       <c r="E69" t="n">
-        <v>33945.38</v>
+        <v>27465.95</v>
       </c>
       <c r="F69" t="n">
-        <v>-19.1</v>
+        <v>12.9</v>
       </c>
       <c r="G69" t="n">
-        <v>30868</v>
+        <v>30917</v>
       </c>
       <c r="H69" t="n">
-        <v>21701</v>
+        <v>23303</v>
       </c>
       <c r="I69" t="n">
-        <v>42.2</v>
+        <v>32.7</v>
       </c>
       <c r="J69" t="s">
         <v>63</v>
@@ -3255,28 +3255,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="D70" t="n">
-        <v>1601</v>
+        <v>-100</v>
       </c>
       <c r="E70" t="n">
-        <v>0.24</v>
+        <v>0.89</v>
       </c>
       <c r="F70" t="n">
-        <v>275.8</v>
+        <v>-100</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>257.6</v>
+        <v>49.1</v>
       </c>
       <c r="J70" t="s">
         <v>63</v>
@@ -3290,28 +3290,28 @@
         <v>78</v>
       </c>
       <c r="B71" t="n">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C71" t="n">
-        <v>66.42</v>
+        <v>213.35</v>
       </c>
       <c r="D71" t="n">
-        <v>294.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>161</v>
+        <v>261.95</v>
       </c>
       <c r="F71" t="n">
-        <v>62.7</v>
+        <v>-10.5</v>
       </c>
       <c r="G71" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H71" t="n">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="I71" t="n">
-        <v>176.4</v>
+        <v>71.8</v>
       </c>
       <c r="J71" t="s">
         <v>63</v>
@@ -3325,19 +3325,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="D72" t="n">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="E72" t="n">
-        <v>3.29</v>
+        <v>4.16</v>
       </c>
       <c r="F72" t="n">
-        <v>26.5</v>
+        <v>43.2</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>312.3</v>
+        <v>275</v>
       </c>
       <c r="J72" t="s">
         <v>63</v>
@@ -3360,28 +3360,28 @@
         <v>80</v>
       </c>
       <c r="B73" t="n">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C73" t="n">
-        <v>65.79000000000001</v>
+        <v>133.43</v>
       </c>
       <c r="D73" t="n">
-        <v>188.6</v>
+        <v>52.8</v>
       </c>
       <c r="E73" t="n">
-        <v>220.43</v>
+        <v>189.89</v>
       </c>
       <c r="F73" t="n">
-        <v>-13.9</v>
+        <v>7.4</v>
       </c>
       <c r="G73" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H73" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I73" t="n">
-        <v>116.2</v>
+        <v>87.5</v>
       </c>
       <c r="J73" t="s">
         <v>63</v>
@@ -3395,28 +3395,28 @@
         <v>81</v>
       </c>
       <c r="B74" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
+        <v>0.87</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2271.1</v>
       </c>
       <c r="E74" t="n">
-        <v>11.81</v>
+        <v>11.11</v>
       </c>
       <c r="F74" t="n">
-        <v>-6</v>
+        <v>85.7</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>20</v>
+      <c r="I74" t="n">
+        <v>4432.9</v>
       </c>
       <c r="J74" t="s">
         <v>63</v>
@@ -3430,28 +3430,28 @@
         <v>82</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-59.5</v>
       </c>
       <c r="E75" t="n">
-        <v>19.05</v>
+        <v>2.11</v>
       </c>
       <c r="F75" t="n">
-        <v>-88.90000000000001</v>
+        <v>130.7</v>
       </c>
       <c r="G75" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>21342.5</v>
+        <v>98.2</v>
       </c>
       <c r="J75" t="s">
         <v>63</v>
@@ -3465,28 +3465,28 @@
         <v>83</v>
       </c>
       <c r="B76" t="n">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="C76" t="n">
-        <v>29</v>
+        <v>441.87</v>
       </c>
       <c r="D76" t="n">
-        <v>78</v>
+        <v>-55.9</v>
       </c>
       <c r="E76" t="n">
-        <v>45.76</v>
+        <v>51.63</v>
       </c>
       <c r="F76" t="n">
-        <v>12.8</v>
+        <v>277.3</v>
       </c>
       <c r="G76" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H76" t="n">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="I76" t="n">
-        <v>112.3</v>
+        <v>-44.5</v>
       </c>
       <c r="J76" t="s">
         <v>63</v>
@@ -3500,28 +3500,28 @@
         <v>84</v>
       </c>
       <c r="B77" t="n">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="C77" t="n">
-        <v>82.68000000000001</v>
+        <v>273.78</v>
       </c>
       <c r="D77" t="n">
-        <v>5.9</v>
+        <v>48.6</v>
       </c>
       <c r="E77" t="n">
-        <v>190.24</v>
+        <v>87.58</v>
       </c>
       <c r="F77" t="n">
-        <v>-54</v>
+        <v>364.4</v>
       </c>
       <c r="G77" t="n">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="H77" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="I77" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="J77" t="s">
         <v>63</v>
@@ -3535,28 +3535,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
-        <v>2.16</v>
+        <v>1.57</v>
       </c>
       <c r="D78" t="n">
-        <v>278</v>
+        <v>1199.1</v>
       </c>
       <c r="E78" t="n">
-        <v>16.33</v>
+        <v>8.16</v>
       </c>
       <c r="F78" t="n">
-        <v>-50.1</v>
+        <v>149.2</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>514.6</v>
+        <v>717.5</v>
       </c>
       <c r="J78" t="s">
         <v>63</v>
@@ -3570,28 +3570,28 @@
         <v>86</v>
       </c>
       <c r="B79" t="n">
+        <v>88</v>
+      </c>
+      <c r="C79" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="D79" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="F79" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>48</v>
+      </c>
+      <c r="H79" t="n">
         <v>18</v>
       </c>
-      <c r="C79" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="D79" t="n">
-        <v>438.1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-48.7</v>
-      </c>
-      <c r="G79" t="n">
-        <v>27</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
-      </c>
       <c r="I79" t="n">
-        <v>684.4</v>
+        <v>168.2</v>
       </c>
       <c r="J79" t="s">
         <v>63</v>
@@ -3605,28 +3605,28 @@
         <v>87</v>
       </c>
       <c r="B80" t="n">
-        <v>3626</v>
+        <v>6816</v>
       </c>
       <c r="C80" t="n">
-        <v>1769.63</v>
+        <v>5324.48</v>
       </c>
       <c r="D80" t="n">
-        <v>104.9</v>
+        <v>28</v>
       </c>
       <c r="E80" t="n">
-        <v>2960.86</v>
+        <v>3625.84</v>
       </c>
       <c r="F80" t="n">
-        <v>22.5</v>
+        <v>88</v>
       </c>
       <c r="G80" t="n">
-        <v>3277</v>
+        <v>4495</v>
       </c>
       <c r="H80" t="n">
-        <v>1924</v>
+        <v>3185</v>
       </c>
       <c r="I80" t="n">
-        <v>70.40000000000001</v>
+        <v>41.1</v>
       </c>
       <c r="J80" t="s">
         <v>63</v>
@@ -3640,28 +3640,28 @@
         <v>88</v>
       </c>
       <c r="B81" t="n">
-        <v>4531</v>
+        <v>5929</v>
       </c>
       <c r="C81" t="n">
-        <v>1708.37</v>
+        <v>3763.09</v>
       </c>
       <c r="D81" t="n">
-        <v>165.2</v>
+        <v>57.6</v>
       </c>
       <c r="E81" t="n">
-        <v>3146.48</v>
+        <v>4530.89</v>
       </c>
       <c r="F81" t="n">
-        <v>44</v>
+        <v>30.9</v>
       </c>
       <c r="G81" t="n">
-        <v>3804</v>
+        <v>4536</v>
       </c>
       <c r="H81" t="n">
-        <v>1667</v>
+        <v>2445</v>
       </c>
       <c r="I81" t="n">
-        <v>128.2</v>
+        <v>85.5</v>
       </c>
       <c r="J81" t="s">
         <v>63</v>
@@ -3675,28 +3675,28 @@
         <v>89</v>
       </c>
       <c r="B82" t="n">
-        <v>1444</v>
+        <v>2141</v>
       </c>
       <c r="C82" t="n">
-        <v>954.47</v>
+        <v>3202.91</v>
       </c>
       <c r="D82" t="n">
-        <v>51.2</v>
+        <v>-33.1</v>
       </c>
       <c r="E82" t="n">
-        <v>1085.19</v>
+        <v>1443.63</v>
       </c>
       <c r="F82" t="n">
-        <v>33</v>
+        <v>48.3</v>
       </c>
       <c r="G82" t="n">
-        <v>1255</v>
+        <v>1560</v>
       </c>
       <c r="H82" t="n">
-        <v>949</v>
+        <v>1785</v>
       </c>
       <c r="I82" t="n">
-        <v>32.4</v>
+        <v>-12.6</v>
       </c>
       <c r="J82" t="s">
         <v>63</v>
@@ -3719,19 +3719,19 @@
         <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>485</v>
+        <v>509.9</v>
       </c>
       <c r="J83" t="s">
         <v>63</v>
@@ -3745,28 +3745,28 @@
         <v>91</v>
       </c>
       <c r="B84" t="n">
+        <v>353</v>
+      </c>
+      <c r="C84" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>121.79</v>
+      </c>
+      <c r="F84" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>209</v>
+      </c>
+      <c r="H84" t="n">
         <v>122</v>
       </c>
-      <c r="C84" t="n">
-        <v>45</v>
-      </c>
-      <c r="D84" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>143.81</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-15.3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>133</v>
-      </c>
-      <c r="H84" t="n">
-        <v>50</v>
-      </c>
       <c r="I84" t="n">
-        <v>165.9</v>
+        <v>70.8</v>
       </c>
       <c r="J84" t="s">
         <v>63</v>
@@ -3789,10 +3789,10 @@
         <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3815,28 +3815,28 @@
         <v>93</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>31.95</v>
+        <v>53.74</v>
       </c>
       <c r="D86" t="n">
-        <v>-91.8</v>
+        <v>-88</v>
       </c>
       <c r="E86" t="n">
-        <v>11.1</v>
+        <v>2.63</v>
       </c>
       <c r="F86" t="n">
-        <v>-76.3</v>
+        <v>144.3</v>
       </c>
       <c r="G86" t="n">
         <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I86" t="n">
-        <v>-79.7</v>
+        <v>-83.59999999999999</v>
       </c>
       <c r="J86" t="s">
         <v>63</v>
@@ -3850,19 +3850,19 @@
         <v>94</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="D87" t="n">
-        <v>266.6</v>
+        <v>9.5</v>
       </c>
       <c r="E87" t="n">
-        <v>1.1</v>
+        <v>0.58</v>
       </c>
       <c r="F87" t="n">
-        <v>-47.1</v>
+        <v>-17.7</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-38.6</v>
+        <v>-30.1</v>
       </c>
       <c r="J87" t="s">
         <v>63</v>
@@ -3885,22 +3885,22 @@
         <v>95</v>
       </c>
       <c r="B88" t="n">
+        <v>72</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="n">
         <v>4</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3.24</v>
-      </c>
       <c r="F88" t="n">
-        <v>23.5</v>
+        <v>1703.6</v>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3923,25 +3923,25 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1.89</v>
+        <v>3.09</v>
       </c>
       <c r="D89" t="n">
-        <v>-97.2</v>
+        <v>-98.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
       <c r="F89" t="n">
-        <v>-91.5</v>
+        <v>-9.5</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>-84.5</v>
+        <v>-90.40000000000001</v>
       </c>
       <c r="J89" t="s">
         <v>63</v>
@@ -3955,28 +3955,28 @@
         <v>97</v>
       </c>
       <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D90" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-55.7</v>
+      </c>
+      <c r="G90" t="n">
         <v>17</v>
       </c>
-      <c r="C90" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D90" t="n">
-        <v>903.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-36.6</v>
-      </c>
-      <c r="G90" t="n">
-        <v>22</v>
-      </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>2426.4</v>
+        <v>670.1</v>
       </c>
       <c r="J90" t="s">
         <v>63</v>
@@ -3990,28 +3990,28 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>63</v>
+        <v>740</v>
       </c>
       <c r="C91" t="n">
-        <v>4.95</v>
+        <v>119</v>
       </c>
       <c r="D91" t="n">
-        <v>1176.6</v>
+        <v>521.7</v>
       </c>
       <c r="E91" t="n">
-        <v>70.09999999999999</v>
+        <v>63.16</v>
       </c>
       <c r="F91" t="n">
-        <v>-9.9</v>
+        <v>1071.4</v>
       </c>
       <c r="G91" t="n">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="H91" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I91" t="n">
-        <v>121.9</v>
+        <v>373.2</v>
       </c>
       <c r="J91" t="s">
         <v>63</v>
@@ -4025,28 +4025,28 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>5349</v>
+        <v>4501</v>
       </c>
       <c r="C92" t="n">
-        <v>4360.89</v>
+        <v>4342.22</v>
       </c>
       <c r="D92" t="n">
-        <v>22.7</v>
+        <v>3.7</v>
       </c>
       <c r="E92" t="n">
-        <v>5641</v>
+        <v>5348.89</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.2</v>
+        <v>-15.9</v>
       </c>
       <c r="G92" t="n">
-        <v>5502</v>
+        <v>5158</v>
       </c>
       <c r="H92" t="n">
-        <v>4155</v>
+        <v>4224</v>
       </c>
       <c r="I92" t="n">
-        <v>32.4</v>
+        <v>22.1</v>
       </c>
       <c r="J92" t="s">
         <v>63</v>
@@ -4060,28 +4060,28 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>20208</v>
+        <v>17846</v>
       </c>
       <c r="C93" t="n">
-        <v>12556.11</v>
+        <v>11679.43</v>
       </c>
       <c r="D93" t="n">
-        <v>60.9</v>
+        <v>52.8</v>
       </c>
       <c r="E93" t="n">
-        <v>21416.29</v>
+        <v>20207.53</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.6</v>
+        <v>-11.7</v>
       </c>
       <c r="G93" t="n">
-        <v>20842</v>
+        <v>19811</v>
       </c>
       <c r="H93" t="n">
-        <v>14392</v>
+        <v>13385</v>
       </c>
       <c r="I93" t="n">
-        <v>44.8</v>
+        <v>48</v>
       </c>
       <c r="J93" t="s">
         <v>63</v>
@@ -4095,28 +4095,28 @@
         <v>101</v>
       </c>
       <c r="B94" t="n">
-        <v>3173</v>
+        <v>2633</v>
       </c>
       <c r="C94" t="n">
-        <v>2956.68</v>
+        <v>2680.7</v>
       </c>
       <c r="D94" t="n">
-        <v>7.3</v>
+        <v>-1.8</v>
       </c>
       <c r="E94" t="n">
-        <v>3504</v>
+        <v>3172.68</v>
       </c>
       <c r="F94" t="n">
-        <v>-9.5</v>
+        <v>-17</v>
       </c>
       <c r="G94" t="n">
-        <v>3347</v>
+        <v>3101</v>
       </c>
       <c r="H94" t="n">
-        <v>3435</v>
+        <v>3155</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.6</v>
+        <v>-1.7</v>
       </c>
       <c r="J94" t="s">
         <v>63</v>
@@ -4139,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>20</v>
+        <v>0.21</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-77.40000000000001</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4165,28 +4165,28 @@
         <v>103</v>
       </c>
       <c r="B96" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
-        <v>92.73999999999999</v>
+        <v>64.78</v>
       </c>
       <c r="D96" t="n">
-        <v>65.3</v>
+        <v>138.5</v>
       </c>
       <c r="E96" t="n">
-        <v>74.56999999999999</v>
+        <v>153.32</v>
       </c>
       <c r="F96" t="n">
-        <v>105.6</v>
+        <v>0.8</v>
       </c>
       <c r="G96" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H96" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I96" t="n">
-        <v>13.7</v>
+        <v>47.2</v>
       </c>
       <c r="J96" t="s">
         <v>63</v>
@@ -4200,28 +4200,28 @@
         <v>104</v>
       </c>
       <c r="B97" t="n">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="C97" t="n">
-        <v>81.31999999999999</v>
+        <v>111.48</v>
       </c>
       <c r="D97" t="n">
-        <v>49.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>164.57</v>
+        <v>121.37</v>
       </c>
       <c r="F97" t="n">
-        <v>-26.3</v>
+        <v>52.5</v>
       </c>
       <c r="G97" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H97" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I97" t="n">
-        <v>34</v>
+        <v>45.2</v>
       </c>
       <c r="J97" t="s">
         <v>63</v>
@@ -4235,28 +4235,28 @@
         <v>105</v>
       </c>
       <c r="B98" t="n">
-        <v>5254</v>
+        <v>3067</v>
       </c>
       <c r="C98" t="n">
-        <v>1348.84</v>
+        <v>1600.61</v>
       </c>
       <c r="D98" t="n">
-        <v>289.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>5561.62</v>
+        <v>5254.42</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.5</v>
+        <v>-41.6</v>
       </c>
       <c r="G98" t="n">
-        <v>5416</v>
+        <v>4607</v>
       </c>
       <c r="H98" t="n">
-        <v>1229</v>
+        <v>1367</v>
       </c>
       <c r="I98" t="n">
-        <v>340.8</v>
+        <v>237.1</v>
       </c>
       <c r="J98" t="s">
         <v>63</v>
@@ -4270,28 +4270,28 @@
         <v>106</v>
       </c>
       <c r="B99" t="n">
-        <v>719</v>
+        <v>1027</v>
       </c>
       <c r="C99" t="n">
-        <v>623.05</v>
+        <v>734.5700000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>15.3</v>
+        <v>39.8</v>
       </c>
       <c r="E99" t="n">
-        <v>1240.9</v>
+        <v>718.58</v>
       </c>
       <c r="F99" t="n">
-        <v>-42.1</v>
+        <v>42.9</v>
       </c>
       <c r="G99" t="n">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="H99" t="n">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="I99" t="n">
-        <v>46.4</v>
+        <v>43.7</v>
       </c>
       <c r="J99" t="s">
         <v>63</v>
@@ -4305,28 +4305,28 @@
         <v>107</v>
       </c>
       <c r="B100" t="n">
-        <v>1761</v>
+        <v>1946</v>
       </c>
       <c r="C100" t="n">
-        <v>2615.63</v>
+        <v>1905.91</v>
       </c>
       <c r="D100" t="n">
-        <v>-32.7</v>
+        <v>2.1</v>
       </c>
       <c r="E100" t="n">
-        <v>1543.33</v>
+        <v>1761.21</v>
       </c>
       <c r="F100" t="n">
-        <v>14.1</v>
+        <v>10.5</v>
       </c>
       <c r="G100" t="n">
-        <v>1647</v>
+        <v>1750</v>
       </c>
       <c r="H100" t="n">
-        <v>3022</v>
+        <v>2608</v>
       </c>
       <c r="I100" t="n">
-        <v>-45.5</v>
+        <v>-32.9</v>
       </c>
       <c r="J100" t="s">
         <v>63</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>31.63</v>
+        <v>69.52</v>
       </c>
       <c r="D101" t="n">
         <v>-100</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I101" t="n">
         <v>-100</v>
@@ -4375,28 +4375,28 @@
         <v>109</v>
       </c>
       <c r="B102" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" t="n">
-        <v>37.58</v>
+        <v>50.13</v>
       </c>
       <c r="D102" t="n">
-        <v>71.3</v>
+        <v>25.6</v>
       </c>
       <c r="E102" t="n">
-        <v>76.52</v>
+        <v>64.37</v>
       </c>
       <c r="F102" t="n">
-        <v>-15.9</v>
+        <v>-2.2</v>
       </c>
       <c r="G102" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H102" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I102" t="n">
-        <v>72.5</v>
+        <v>53.3</v>
       </c>
       <c r="J102" t="s">
         <v>63</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>2295.47</v>
+        <v>2006.26</v>
       </c>
       <c r="D103" t="n">
         <v>-100</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>2245</v>
+        <v>2157</v>
       </c>
       <c r="I103" t="n">
         <v>-100</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>5449.05</v>
+        <v>1664.61</v>
       </c>
       <c r="D104" t="n">
         <v>-100</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>4864</v>
+        <v>3677</v>
       </c>
       <c r="I104" t="n">
         <v>-100</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1955.58</v>
+        <v>1216.39</v>
       </c>
       <c r="D105" t="n">
         <v>-100</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>2074</v>
+        <v>1756</v>
       </c>
       <c r="I105" t="n">
         <v>-100</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>12540.42</v>
+        <v>8404.35</v>
       </c>
       <c r="D106" t="n">
         <v>-100</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>11644</v>
+        <v>10442</v>
       </c>
       <c r="I106" t="n">
         <v>-100</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>8758.58</v>
+        <v>4066.35</v>
       </c>
       <c r="D107" t="n">
         <v>-100</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>7252</v>
+        <v>6070</v>
       </c>
       <c r="I107" t="n">
         <v>-100</v>
@@ -4585,28 +4585,28 @@
         <v>71</v>
       </c>
       <c r="B108" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C108" t="n">
-        <v>203.84</v>
+        <v>52.26</v>
       </c>
       <c r="D108" t="n">
-        <v>-79.2</v>
+        <v>29.3</v>
       </c>
       <c r="E108" t="n">
-        <v>49.95</v>
+        <v>42.37</v>
       </c>
       <c r="F108" t="n">
-        <v>-15.2</v>
+        <v>59.5</v>
       </c>
       <c r="G108" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H108" t="n">
-        <v>405</v>
+        <v>274</v>
       </c>
       <c r="I108" t="n">
-        <v>-88.59999999999999</v>
+        <v>-80.40000000000001</v>
       </c>
       <c r="J108" t="s">
         <v>63</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>95.05</v>
+        <v>24.74</v>
       </c>
       <c r="D109" t="n">
         <v>-100</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I109" t="n">
         <v>-100</v>
@@ -4655,7 +4655,7 @@
         <v>88</v>
       </c>
       <c r="B110" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -4664,13 +4664,13 @@
         <v>20</v>
       </c>
       <c r="E110" t="n">
-        <v>68.33</v>
+        <v>75.53</v>
       </c>
       <c r="F110" t="n">
-        <v>10.5</v>
+        <v>-100</v>
       </c>
       <c r="G110" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="D111" t="n">
         <v>-100</v>
@@ -4728,25 +4728,25 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1.53</v>
+        <v>5.3</v>
       </c>
       <c r="D112" t="n">
-        <v>-82.8</v>
+        <v>-95.5</v>
       </c>
       <c r="E112" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="F112" t="n">
-        <v>-49.8</v>
+        <v>-9.5</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>-81.40000000000001</v>
+        <v>-89.59999999999999</v>
       </c>
       <c r="J112" t="s">
         <v>63</v>
@@ -4763,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>20</v>
+        <v>0.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-100</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4780,8 +4780,8 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>20</v>
+      <c r="I113" t="n">
+        <v>-100</v>
       </c>
       <c r="J113" t="s">
         <v>63</v>
@@ -4795,28 +4795,28 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="D114" t="n">
-        <v>257.2</v>
+        <v>-87.8</v>
       </c>
       <c r="E114" t="n">
-        <v>0.57</v>
+        <v>2.63</v>
       </c>
       <c r="F114" t="n">
-        <v>360.6</v>
+        <v>-98.2</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>88.90000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="J114" t="s">
         <v>63</v>
@@ -4830,28 +4830,28 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>20.47</v>
+        <v>7.26</v>
       </c>
       <c r="D115" t="n">
-        <v>-84.09999999999999</v>
+        <v>-95.40000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>2.14</v>
+        <v>3.26</v>
       </c>
       <c r="F115" t="n">
-        <v>52.3</v>
+        <v>-89.8</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I115" t="n">
-        <v>-77.2</v>
+        <v>-81.5</v>
       </c>
       <c r="J115" t="s">
         <v>63</v>
@@ -4900,28 +4900,28 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>7614</v>
+        <v>11194</v>
       </c>
       <c r="C117" t="n">
-        <v>2698.26</v>
+        <v>7741.61</v>
       </c>
       <c r="D117" t="n">
-        <v>182.2</v>
+        <v>44.6</v>
       </c>
       <c r="E117" t="n">
-        <v>7989.62</v>
+        <v>13857.11</v>
       </c>
       <c r="F117" t="n">
-        <v>-4.7</v>
+        <v>-19.2</v>
       </c>
       <c r="G117" t="n">
-        <v>7811</v>
+        <v>13378</v>
       </c>
       <c r="H117" t="n">
-        <v>2812</v>
+        <v>6465</v>
       </c>
       <c r="I117" t="n">
-        <v>177.8</v>
+        <v>106.9</v>
       </c>
       <c r="J117" t="s">
         <v>63</v>
@@ -4935,28 +4935,28 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>13857</v>
+        <v>13815</v>
       </c>
       <c r="C118" t="n">
-        <v>4583.89</v>
+        <v>13065.04</v>
       </c>
       <c r="D118" t="n">
-        <v>202.3</v>
+        <v>5.7</v>
       </c>
       <c r="E118" t="n">
-        <v>15129.71</v>
+        <v>15561.89</v>
       </c>
       <c r="F118" t="n">
-        <v>-8.4</v>
+        <v>-11.2</v>
       </c>
       <c r="G118" t="n">
-        <v>14525</v>
+        <v>14288</v>
       </c>
       <c r="H118" t="n">
-        <v>5712</v>
+        <v>11047</v>
       </c>
       <c r="I118" t="n">
-        <v>154.3</v>
+        <v>29.3</v>
       </c>
       <c r="J118" t="s">
         <v>63</v>
@@ -4970,28 +4970,28 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>15562</v>
+        <v>5883</v>
       </c>
       <c r="C119" t="n">
-        <v>7139.11</v>
+        <v>4976.09</v>
       </c>
       <c r="D119" t="n">
-        <v>118</v>
+        <v>18.2</v>
       </c>
       <c r="E119" t="n">
-        <v>13607.33</v>
+        <v>7614.16</v>
       </c>
       <c r="F119" t="n">
-        <v>14.4</v>
+        <v>-22.7</v>
       </c>
       <c r="G119" t="n">
-        <v>14536</v>
+        <v>7147</v>
       </c>
       <c r="H119" t="n">
-        <v>9857</v>
+        <v>3615</v>
       </c>
       <c r="I119" t="n">
-        <v>47.5</v>
+        <v>97.7</v>
       </c>
       <c r="J119" t="s">
         <v>63</v>
@@ -5005,28 +5005,28 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>44486</v>
+        <v>33594</v>
       </c>
       <c r="C120" t="n">
-        <v>11927.53</v>
+        <v>22148.74</v>
       </c>
       <c r="D120" t="n">
-        <v>273</v>
+        <v>51.7</v>
       </c>
       <c r="E120" t="n">
-        <v>53294.38</v>
+        <v>44485.84</v>
       </c>
       <c r="F120" t="n">
-        <v>-16.5</v>
+        <v>-24.5</v>
       </c>
       <c r="G120" t="n">
-        <v>49110</v>
+        <v>43769</v>
       </c>
       <c r="H120" t="n">
-        <v>14315</v>
+        <v>17221</v>
       </c>
       <c r="I120" t="n">
-        <v>243.1</v>
+        <v>154.2</v>
       </c>
       <c r="J120" t="s">
         <v>63</v>
@@ -5040,28 +5040,28 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>8836</v>
+        <v>8161</v>
       </c>
       <c r="C121" t="n">
-        <v>2763</v>
+        <v>4123.57</v>
       </c>
       <c r="D121" t="n">
-        <v>219.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>9136.24</v>
+        <v>8836.469999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>-3.3</v>
+        <v>-7.6</v>
       </c>
       <c r="G121" t="n">
-        <v>8994</v>
+        <v>8707</v>
       </c>
       <c r="H121" t="n">
-        <v>3411</v>
+        <v>3675</v>
       </c>
       <c r="I121" t="n">
-        <v>163.7</v>
+        <v>136.9</v>
       </c>
       <c r="J121" t="s">
         <v>63</v>
@@ -5075,28 +5075,28 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
-        <v>90.95</v>
+        <v>93.13</v>
       </c>
       <c r="D122" t="n">
-        <v>-43.4</v>
+        <v>-45.9</v>
       </c>
       <c r="E122" t="n">
-        <v>139.19</v>
+        <v>51.47</v>
       </c>
       <c r="F122" t="n">
-        <v>-63</v>
+        <v>-2.1</v>
       </c>
       <c r="G122" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H122" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I122" t="n">
-        <v>-19.4</v>
+        <v>-26.5</v>
       </c>
       <c r="J122" t="s">
         <v>63</v>
@@ -5113,16 +5113,16 @@
         <v>169</v>
       </c>
       <c r="C123" t="n">
-        <v>20.79</v>
+        <v>13.35</v>
       </c>
       <c r="D123" t="n">
-        <v>712.2</v>
+        <v>1162.9</v>
       </c>
       <c r="E123" t="n">
-        <v>164.52</v>
+        <v>168.84</v>
       </c>
       <c r="F123" t="n">
-        <v>2.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G123" t="n">
         <v>167</v>
@@ -5131,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="I123" t="n">
-        <v>1209.8</v>
+        <v>1191.4</v>
       </c>
       <c r="J123" t="s">
         <v>123</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>20</v>
       </c>
       <c r="E124" t="n">
-        <v>8.619999999999999</v>
+        <v>52.21</v>
       </c>
       <c r="F124" t="n">
-        <v>505.8</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5180,28 +5180,28 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>56768</v>
+        <v>77223</v>
       </c>
       <c r="C125" t="n">
-        <v>50439.84</v>
+        <v>67486.13</v>
       </c>
       <c r="D125" t="n">
-        <v>12.5</v>
+        <v>14.4</v>
       </c>
       <c r="E125" t="n">
-        <v>71116.19</v>
+        <v>56768.11</v>
       </c>
       <c r="F125" t="n">
-        <v>-20.2</v>
+        <v>36</v>
       </c>
       <c r="G125" t="n">
-        <v>64301</v>
+        <v>68749</v>
       </c>
       <c r="H125" t="n">
-        <v>57929</v>
+        <v>61474</v>
       </c>
       <c r="I125" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="J125" t="s">
         <v>125</v>
@@ -5215,28 +5215,28 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>15245</v>
+        <v>16177</v>
       </c>
       <c r="C126" t="n">
-        <v>12057.53</v>
+        <v>13210.91</v>
       </c>
       <c r="D126" t="n">
-        <v>26.4</v>
+        <v>22.5</v>
       </c>
       <c r="E126" t="n">
-        <v>12049.52</v>
+        <v>15245.37</v>
       </c>
       <c r="F126" t="n">
-        <v>26.5</v>
+        <v>6.1</v>
       </c>
       <c r="G126" t="n">
-        <v>13568</v>
+        <v>14466</v>
       </c>
       <c r="H126" t="n">
-        <v>11103</v>
+        <v>11885</v>
       </c>
       <c r="I126" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="J126" t="s">
         <v>125</v>
@@ -5250,28 +5250,28 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>49287</v>
+        <v>54758</v>
       </c>
       <c r="C127" t="n">
-        <v>39075.16</v>
+        <v>41877.09</v>
       </c>
       <c r="D127" t="n">
-        <v>26.1</v>
+        <v>30.8</v>
       </c>
       <c r="E127" t="n">
-        <v>47257.86</v>
+        <v>49286.79</v>
       </c>
       <c r="F127" t="n">
-        <v>4.3</v>
+        <v>11.1</v>
       </c>
       <c r="G127" t="n">
-        <v>48222</v>
+        <v>50472</v>
       </c>
       <c r="H127" t="n">
-        <v>40762</v>
+        <v>41176</v>
       </c>
       <c r="I127" t="n">
-        <v>18.3</v>
+        <v>22.6</v>
       </c>
       <c r="J127" t="s">
         <v>125</v>
@@ -5285,28 +5285,28 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>1117</v>
+        <v>731</v>
       </c>
       <c r="C128" t="n">
-        <v>1058.68</v>
+        <v>649.65</v>
       </c>
       <c r="D128" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="E128" t="n">
-        <v>747.14</v>
+        <v>1117.11</v>
       </c>
       <c r="F128" t="n">
-        <v>49.5</v>
+        <v>-34.6</v>
       </c>
       <c r="G128" t="n">
-        <v>923</v>
+        <v>857</v>
       </c>
       <c r="H128" t="n">
-        <v>808</v>
+        <v>749</v>
       </c>
       <c r="I128" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="J128" t="s">
         <v>125</v>
@@ -5320,28 +5320,28 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>983</v>
+        <v>829</v>
       </c>
       <c r="C129" t="n">
-        <v>1473.74</v>
+        <v>1468.43</v>
       </c>
       <c r="D129" t="n">
-        <v>-33.3</v>
+        <v>-43.5</v>
       </c>
       <c r="E129" t="n">
-        <v>1124.29</v>
+        <v>983.26</v>
       </c>
       <c r="F129" t="n">
-        <v>-12.5</v>
+        <v>-15.6</v>
       </c>
       <c r="G129" t="n">
-        <v>1057</v>
+        <v>979</v>
       </c>
       <c r="H129" t="n">
-        <v>1422</v>
+        <v>1439</v>
       </c>
       <c r="I129" t="n">
-        <v>-25.6</v>
+        <v>-32</v>
       </c>
       <c r="J129" t="s">
         <v>125</v>
@@ -5390,28 +5390,28 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C131" t="n">
-        <v>469.74</v>
+        <v>232.35</v>
       </c>
       <c r="D131" t="n">
-        <v>-46.8</v>
+        <v>14.8</v>
       </c>
       <c r="E131" t="n">
-        <v>250.95</v>
+        <v>250.05</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.4</v>
+        <v>6.6</v>
       </c>
       <c r="G131" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H131" t="n">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="I131" t="n">
-        <v>-29.8</v>
+        <v>-17.6</v>
       </c>
       <c r="J131" t="s">
         <v>125</v>
@@ -5425,28 +5425,28 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>341</v>
+        <v>153</v>
       </c>
       <c r="C132" t="n">
-        <v>138</v>
+        <v>181.52</v>
       </c>
       <c r="D132" t="n">
-        <v>146.8</v>
+        <v>-15.8</v>
       </c>
       <c r="E132" t="n">
-        <v>266.62</v>
+        <v>340.58</v>
       </c>
       <c r="F132" t="n">
-        <v>27.7</v>
+        <v>-55.1</v>
       </c>
       <c r="G132" t="n">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="H132" t="n">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I132" t="n">
-        <v>134.7</v>
+        <v>69</v>
       </c>
       <c r="J132" t="s">
         <v>125</v>
@@ -5460,28 +5460,28 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C133" t="n">
-        <v>136.89</v>
+        <v>75.09</v>
       </c>
       <c r="D133" t="n">
-        <v>-64.7</v>
+        <v>-66.8</v>
       </c>
       <c r="E133" t="n">
-        <v>24.52</v>
+        <v>48.26</v>
       </c>
       <c r="F133" t="n">
-        <v>96.8</v>
+        <v>-48.3</v>
       </c>
       <c r="G133" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H133" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I133" t="n">
-        <v>-56.8</v>
+        <v>-59.9</v>
       </c>
       <c r="J133" t="s">
         <v>125</v>
@@ -5495,28 +5495,28 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C134" t="n">
-        <v>159.74</v>
+        <v>117.74</v>
       </c>
       <c r="D134" t="n">
-        <v>-52.3</v>
+        <v>-72.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>81.56999999999999</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>-6.6</v>
+        <v>-57.4</v>
       </c>
       <c r="G134" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H134" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="I134" t="n">
-        <v>-47.5</v>
+        <v>-54.5</v>
       </c>
       <c r="J134" t="s">
         <v>125</v>
@@ -5530,28 +5530,28 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>234</v>
+        <v>5626</v>
       </c>
       <c r="C135" t="n">
-        <v>121.58</v>
+        <v>4249.13</v>
       </c>
       <c r="D135" t="n">
-        <v>92.90000000000001</v>
+        <v>32.4</v>
       </c>
       <c r="E135" t="n">
-        <v>139.86</v>
+        <v>234.47</v>
       </c>
       <c r="F135" t="n">
-        <v>67.7</v>
+        <v>2299.6</v>
       </c>
       <c r="G135" t="n">
-        <v>185</v>
+        <v>2058</v>
       </c>
       <c r="H135" t="n">
-        <v>100</v>
+        <v>1639</v>
       </c>
       <c r="I135" t="n">
-        <v>84.8</v>
+        <v>25.6</v>
       </c>
       <c r="J135" t="s">
         <v>125</v>
@@ -5565,28 +5565,28 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>1524</v>
+        <v>1633</v>
       </c>
       <c r="C136" t="n">
-        <v>1745.68</v>
+        <v>1557.78</v>
       </c>
       <c r="D136" t="n">
-        <v>-12.7</v>
+        <v>4.8</v>
       </c>
       <c r="E136" t="n">
-        <v>1462.38</v>
+        <v>1523.84</v>
       </c>
       <c r="F136" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="G136" t="n">
-        <v>1492</v>
+        <v>1540</v>
       </c>
       <c r="H136" t="n">
-        <v>1792</v>
+        <v>1705</v>
       </c>
       <c r="I136" t="n">
-        <v>-16.8</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="J136" t="s">
         <v>125</v>
@@ -5603,16 +5603,16 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="D137" t="n">
-        <v>-62.5</v>
+        <v>-29.6</v>
       </c>
       <c r="E137" t="n">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="F137" t="n">
-        <v>-63.2</v>
+        <v>171.4</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-64.5</v>
+        <v>-54.6</v>
       </c>
       <c r="J137" t="s">
         <v>125</v>
@@ -5635,28 +5635,28 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D138" t="n">
-        <v>143.3</v>
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
       </c>
       <c r="E138" t="n">
-        <v>6.67</v>
+        <v>19.21</v>
       </c>
       <c r="F138" t="n">
-        <v>188.2</v>
+        <v>-100</v>
       </c>
       <c r="G138" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H138" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I138" t="n">
-        <v>-48.2</v>
+        <v>-46</v>
       </c>
       <c r="J138" t="s">
         <v>125</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>20</v>
+        <v>1086.96</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-100</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="s">
-        <v>20</v>
+        <v>403</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-100</v>
       </c>
       <c r="J139" t="s">
         <v>125</v>
@@ -5743,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>20</v>
+        <v>10.87</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-100</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -5758,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-100</v>
       </c>
       <c r="J141" t="s">
         <v>125</v>
@@ -5778,10 +5778,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="D142" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I142" t="n">
         <v>-100</v>
@@ -5845,28 +5845,28 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="C144" t="n">
-        <v>636.42</v>
+        <v>689.04</v>
       </c>
       <c r="D144" t="n">
-        <v>-33.2</v>
+        <v>-54.5</v>
       </c>
       <c r="E144" t="n">
-        <v>683.8099999999999</v>
+        <v>425.21</v>
       </c>
       <c r="F144" t="n">
-        <v>-37.8</v>
+        <v>-26.3</v>
       </c>
       <c r="G144" t="n">
-        <v>561</v>
+        <v>476</v>
       </c>
       <c r="H144" t="n">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="I144" t="n">
-        <v>3.4</v>
+        <v>-20.3</v>
       </c>
       <c r="J144" t="s">
         <v>125</v>
@@ -5880,28 +5880,28 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>593</v>
+        <v>358</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="s">
-        <v>20</v>
+        <v>1481.13</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-75.8</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>20</v>
+        <v>592.95</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-39.6</v>
       </c>
       <c r="G145" t="n">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="s">
-        <v>20</v>
+        <v>549</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-43.9</v>
       </c>
       <c r="J145" t="s">
         <v>125</v>
@@ -5915,28 +5915,28 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C146" t="n">
-        <v>669.05</v>
+        <v>379.13</v>
       </c>
       <c r="D146" t="n">
-        <v>-84.7</v>
+        <v>-52</v>
       </c>
       <c r="E146" t="n">
-        <v>235.24</v>
+        <v>102.11</v>
       </c>
       <c r="F146" t="n">
-        <v>-56.6</v>
+        <v>78.2</v>
       </c>
       <c r="G146" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H146" t="n">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="I146" t="n">
-        <v>-66.8</v>
+        <v>-62.4</v>
       </c>
       <c r="J146" t="s">
         <v>125</v>
@@ -5950,28 +5950,28 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C147" t="n">
-        <v>2.11</v>
+        <v>22.61</v>
       </c>
       <c r="D147" t="n">
-        <v>200</v>
+        <v>-15.8</v>
       </c>
       <c r="E147" t="n">
-        <v>30.48</v>
+        <v>6.32</v>
       </c>
       <c r="F147" t="n">
-        <v>-79.3</v>
+        <v>201.6</v>
       </c>
       <c r="G147" t="n">
         <v>19</v>
       </c>
       <c r="H147" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I147" t="n">
-        <v>53.1</v>
+        <v>17.4</v>
       </c>
       <c r="J147" t="s">
         <v>125</v>
@@ -5985,28 +5985,28 @@
         <v>124</v>
       </c>
       <c r="B148" t="n">
-        <v>11691</v>
+        <v>15751</v>
       </c>
       <c r="C148" t="n">
-        <v>11167.37</v>
+        <v>13465.17</v>
       </c>
       <c r="D148" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="E148" t="n">
-        <v>12391.81</v>
+        <v>11690.89</v>
       </c>
       <c r="F148" t="n">
-        <v>-5.7</v>
+        <v>34.7</v>
       </c>
       <c r="G148" t="n">
-        <v>12059</v>
+        <v>13330</v>
       </c>
       <c r="H148" t="n">
-        <v>12100</v>
+        <v>12606</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.3</v>
+        <v>5.7</v>
       </c>
       <c r="J148" t="s">
         <v>125</v>
@@ -6020,28 +6020,28 @@
         <v>126</v>
       </c>
       <c r="B149" t="n">
-        <v>1380</v>
+        <v>2165</v>
       </c>
       <c r="C149" t="n">
-        <v>1044.68</v>
+        <v>1971.3</v>
       </c>
       <c r="D149" t="n">
-        <v>32.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>1785.05</v>
+        <v>1380.21</v>
       </c>
       <c r="F149" t="n">
-        <v>-22.7</v>
+        <v>56.8</v>
       </c>
       <c r="G149" t="n">
-        <v>1593</v>
+        <v>1790</v>
       </c>
       <c r="H149" t="n">
-        <v>1250</v>
+        <v>1517</v>
       </c>
       <c r="I149" t="n">
-        <v>27.4</v>
+        <v>17.9</v>
       </c>
       <c r="J149" t="s">
         <v>125</v>
@@ -6055,28 +6055,28 @@
         <v>127</v>
       </c>
       <c r="B150" t="n">
-        <v>9831</v>
+        <v>10642</v>
       </c>
       <c r="C150" t="n">
-        <v>10247.58</v>
+        <v>8665.48</v>
       </c>
       <c r="D150" t="n">
-        <v>-4.1</v>
+        <v>22.8</v>
       </c>
       <c r="E150" t="n">
-        <v>6866.14</v>
+        <v>9831.32</v>
       </c>
       <c r="F150" t="n">
-        <v>43.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>8275</v>
+        <v>9090</v>
       </c>
       <c r="H150" t="n">
-        <v>8522</v>
+        <v>8575</v>
       </c>
       <c r="I150" t="n">
-        <v>-2.9</v>
+        <v>6</v>
       </c>
       <c r="J150" t="s">
         <v>125</v>
@@ -6090,28 +6090,28 @@
         <v>128</v>
       </c>
       <c r="B151" t="n">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C151" t="n">
-        <v>69.95</v>
+        <v>43.3</v>
       </c>
       <c r="D151" t="n">
-        <v>50</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>99</v>
+        <v>104.89</v>
       </c>
       <c r="F151" t="n">
-        <v>6</v>
+        <v>-29.6</v>
       </c>
       <c r="G151" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H151" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I151" t="n">
-        <v>63.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J151" t="s">
         <v>125</v>
@@ -6125,28 +6125,28 @@
         <v>129</v>
       </c>
       <c r="B152" t="n">
-        <v>1192</v>
+        <v>1076</v>
       </c>
       <c r="C152" t="n">
-        <v>1809.95</v>
+        <v>2014.83</v>
       </c>
       <c r="D152" t="n">
-        <v>-34.2</v>
+        <v>-46.6</v>
       </c>
       <c r="E152" t="n">
-        <v>1520.9</v>
+        <v>1191.84</v>
       </c>
       <c r="F152" t="n">
-        <v>-21.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>1365</v>
+        <v>1265</v>
       </c>
       <c r="H152" t="n">
-        <v>1791</v>
+        <v>1874</v>
       </c>
       <c r="I152" t="n">
-        <v>-23.8</v>
+        <v>-32.5</v>
       </c>
       <c r="J152" t="s">
         <v>125</v>
@@ -6163,25 +6163,25 @@
         <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>2.2</v>
+        <v>-38.1</v>
       </c>
       <c r="E153" t="n">
-        <v>1.81</v>
+        <v>2.42</v>
       </c>
       <c r="F153" t="n">
-        <v>33.8</v>
+        <v>-23.3</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I153" t="n">
-        <v>-66</v>
+        <v>-59.7</v>
       </c>
       <c r="J153" t="s">
         <v>125</v>
@@ -6195,28 +6195,28 @@
         <v>131</v>
       </c>
       <c r="B154" t="n">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C154" t="n">
-        <v>415</v>
+        <v>189.91</v>
       </c>
       <c r="D154" t="n">
-        <v>-39.4</v>
+        <v>51.6</v>
       </c>
       <c r="E154" t="n">
-        <v>186.57</v>
+        <v>251.58</v>
       </c>
       <c r="F154" t="n">
-        <v>34.8</v>
+        <v>14.4</v>
       </c>
       <c r="G154" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="H154" t="n">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="I154" t="n">
-        <v>-33.9</v>
+        <v>-12.8</v>
       </c>
       <c r="J154" t="s">
         <v>125</v>
@@ -6230,28 +6230,28 @@
         <v>132</v>
       </c>
       <c r="B155" t="n">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="C155" t="n">
-        <v>43.42</v>
+        <v>35.22</v>
       </c>
       <c r="D155" t="n">
-        <v>401</v>
+        <v>134.9</v>
       </c>
       <c r="E155" t="n">
-        <v>107.57</v>
+        <v>217.53</v>
       </c>
       <c r="F155" t="n">
-        <v>102.2</v>
+        <v>-62</v>
       </c>
       <c r="G155" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H155" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I155" t="n">
-        <v>112.2</v>
+        <v>120.5</v>
       </c>
       <c r="J155" t="s">
         <v>125</v>
@@ -6265,28 +6265,28 @@
         <v>133</v>
       </c>
       <c r="B156" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C156" t="n">
-        <v>115.05</v>
+        <v>57.65</v>
       </c>
       <c r="D156" t="n">
-        <v>-28.2</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>45.14</v>
+        <v>82.58</v>
       </c>
       <c r="F156" t="n">
-        <v>82.90000000000001</v>
+        <v>-83.3</v>
       </c>
       <c r="G156" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H156" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I156" t="n">
-        <v>-22</v>
+        <v>-36.3</v>
       </c>
       <c r="J156" t="s">
         <v>125</v>
@@ -6300,28 +6300,28 @@
         <v>134</v>
       </c>
       <c r="B157" t="n">
+        <v>17</v>
+      </c>
+      <c r="C157" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="E157" t="n">
         <v>14</v>
       </c>
-      <c r="C157" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="D157" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>41.52</v>
-      </c>
       <c r="F157" t="n">
-        <v>-66.3</v>
+        <v>20.4</v>
       </c>
       <c r="G157" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H157" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I157" t="n">
-        <v>29.5</v>
+        <v>18</v>
       </c>
       <c r="J157" t="s">
         <v>125</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.95</v>
+        <v>0.26</v>
       </c>
       <c r="D158" t="n">
         <v>-100</v>
@@ -6373,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="D159" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I159" t="n">
         <v>-100</v>
@@ -6408,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>20</v>
+        <v>2043.48</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-100</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -6423,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="s">
-        <v>20</v>
+        <v>758</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-100</v>
       </c>
       <c r="J160" t="s">
         <v>125</v>
@@ -6478,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
+        <v>43.48</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-100</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6493,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-100</v>
       </c>
       <c r="J162" t="s">
         <v>125</v>
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>78.95</v>
-      </c>
-      <c r="D163" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I163" t="n">
         <v>-100</v>
@@ -6583,25 +6583,25 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>22.47</v>
+        <v>2.57</v>
       </c>
       <c r="D165" t="n">
+        <v>-90.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>14</v>
+      </c>
+      <c r="I165" t="n">
         <v>-98.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>20</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-99.40000000000001</v>
       </c>
       <c r="J165" t="s">
         <v>125</v>
@@ -6615,28 +6615,28 @@
         <v>144</v>
       </c>
       <c r="B166" t="n">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C166" t="n">
-        <v>456.16</v>
+        <v>281.26</v>
       </c>
       <c r="D166" t="n">
-        <v>-29.9</v>
+        <v>-2.9</v>
       </c>
       <c r="E166" t="n">
-        <v>866.86</v>
+        <v>319.63</v>
       </c>
       <c r="F166" t="n">
-        <v>-63.1</v>
+        <v>-14.6</v>
       </c>
       <c r="G166" t="n">
-        <v>607</v>
+        <v>492</v>
       </c>
       <c r="H166" t="n">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="I166" t="n">
-        <v>39.7</v>
+        <v>30.3</v>
       </c>
       <c r="J166" t="s">
         <v>125</v>
